--- a/files/VITAL-MOD-DEC21.xlsx
+++ b/files/VITAL-MOD-DEC21.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B46746-E045-4CE0-AEE3-8AA32F4B4985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5390786C-7D77-40F2-9638-D284647CF84C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VITAL (Ear.+Exp.) Dec-21" sheetId="6" r:id="rId1"/>
@@ -4612,11 +4612,26 @@
     <xf numFmtId="2" fontId="11" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="9" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4624,185 +4639,212 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="17" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="16" fontId="13" fillId="4" borderId="25" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="13" fillId="4" borderId="44" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="13" fillId="4" borderId="27" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="13" fillId="4" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="13" fillId="4" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="13" fillId="4" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="17" fontId="13" fillId="4" borderId="39" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4811,6 +4853,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4836,200 +4881,155 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="17" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="17" fontId="13" fillId="4" borderId="39" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="16" fontId="13" fillId="4" borderId="25" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="13" fillId="4" borderId="44" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="13" fillId="4" borderId="27" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="13" fillId="4" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="13" fillId="4" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="13" fillId="4" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="9" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5037,34 +5037,34 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -34677,7 +34677,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT92"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="N25" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
@@ -34686,10 +34686,10 @@
     <col min="1" max="1" width="17.140625" style="476" customWidth="1"/>
     <col min="2" max="2" width="11.140625" style="476" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" style="522" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" style="476" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="476" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="476" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" style="476" customWidth="1"/>
     <col min="6" max="6" width="11" style="476" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="476" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" style="476" customWidth="1"/>
     <col min="8" max="8" width="16" style="476" customWidth="1"/>
     <col min="9" max="9" width="13.42578125" style="476" customWidth="1"/>
     <col min="10" max="10" width="10.28515625" style="476" customWidth="1"/>
@@ -34733,91 +34733,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="851" t="s">
+      <c r="A1" s="865" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="852"/>
-      <c r="C1" s="852"/>
-      <c r="D1" s="852"/>
-      <c r="E1" s="852"/>
-      <c r="F1" s="852"/>
-      <c r="G1" s="852"/>
-      <c r="H1" s="852"/>
-      <c r="I1" s="852"/>
-      <c r="J1" s="852"/>
-      <c r="K1" s="852"/>
-      <c r="L1" s="852"/>
-      <c r="M1" s="852"/>
-      <c r="N1" s="852"/>
-      <c r="O1" s="852"/>
-      <c r="P1" s="852"/>
-      <c r="Q1" s="852"/>
-      <c r="R1" s="852"/>
-      <c r="S1" s="852"/>
-      <c r="T1" s="855"/>
-      <c r="U1" s="861" t="str">
+      <c r="B1" s="866"/>
+      <c r="C1" s="866"/>
+      <c r="D1" s="866"/>
+      <c r="E1" s="866"/>
+      <c r="F1" s="866"/>
+      <c r="G1" s="866"/>
+      <c r="H1" s="866"/>
+      <c r="I1" s="866"/>
+      <c r="J1" s="866"/>
+      <c r="K1" s="866"/>
+      <c r="L1" s="866"/>
+      <c r="M1" s="866"/>
+      <c r="N1" s="866"/>
+      <c r="O1" s="866"/>
+      <c r="P1" s="866"/>
+      <c r="Q1" s="866"/>
+      <c r="R1" s="866"/>
+      <c r="S1" s="866"/>
+      <c r="T1" s="870"/>
+      <c r="U1" s="876" t="str">
         <f>+A2</f>
         <v xml:space="preserve">KEY STATISTICS TO END OF Dec-2021 (Actual.) </v>
       </c>
-      <c r="V1" s="856"/>
-      <c r="W1" s="856"/>
-      <c r="X1" s="856"/>
-      <c r="Y1" s="856"/>
-      <c r="Z1" s="856"/>
-      <c r="AA1" s="856"/>
-      <c r="AB1" s="856"/>
-      <c r="AC1" s="856"/>
-      <c r="AD1" s="856"/>
-      <c r="AE1" s="856"/>
-      <c r="AF1" s="856"/>
-      <c r="AG1" s="856"/>
-      <c r="AH1" s="856"/>
-      <c r="AI1" s="856"/>
-      <c r="AJ1" s="856"/>
-      <c r="AK1" s="856"/>
-      <c r="AL1" s="862"/>
-      <c r="AO1" s="865" t="s">
+      <c r="V1" s="871"/>
+      <c r="W1" s="871"/>
+      <c r="X1" s="871"/>
+      <c r="Y1" s="871"/>
+      <c r="Z1" s="871"/>
+      <c r="AA1" s="871"/>
+      <c r="AB1" s="871"/>
+      <c r="AC1" s="871"/>
+      <c r="AD1" s="871"/>
+      <c r="AE1" s="871"/>
+      <c r="AF1" s="871"/>
+      <c r="AG1" s="871"/>
+      <c r="AH1" s="871"/>
+      <c r="AI1" s="871"/>
+      <c r="AJ1" s="871"/>
+      <c r="AK1" s="871"/>
+      <c r="AL1" s="877"/>
+      <c r="AO1" s="857" t="s">
         <v>294</v>
       </c>
-      <c r="AP1" s="866"/>
-      <c r="AQ1" s="866"/>
-      <c r="AR1" s="866"/>
-      <c r="AS1" s="866"/>
+      <c r="AP1" s="796"/>
+      <c r="AQ1" s="796"/>
+      <c r="AR1" s="796"/>
+      <c r="AS1" s="796"/>
     </row>
     <row r="2" spans="1:46" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="828" t="s">
+      <c r="A2" s="878" t="s">
         <v>431</v>
       </c>
-      <c r="B2" s="829"/>
-      <c r="C2" s="829"/>
-      <c r="D2" s="829"/>
-      <c r="E2" s="829"/>
-      <c r="F2" s="829"/>
-      <c r="G2" s="829"/>
-      <c r="H2" s="829"/>
-      <c r="I2" s="829"/>
-      <c r="J2" s="829"/>
-      <c r="K2" s="829"/>
-      <c r="L2" s="829"/>
-      <c r="M2" s="829"/>
-      <c r="N2" s="829"/>
-      <c r="O2" s="829"/>
-      <c r="P2" s="829"/>
-      <c r="Q2" s="829"/>
-      <c r="R2" s="829"/>
-      <c r="S2" s="829"/>
-      <c r="T2" s="863"/>
-      <c r="U2" s="851" t="s">
+      <c r="B2" s="815"/>
+      <c r="C2" s="815"/>
+      <c r="D2" s="815"/>
+      <c r="E2" s="815"/>
+      <c r="F2" s="815"/>
+      <c r="G2" s="815"/>
+      <c r="H2" s="815"/>
+      <c r="I2" s="815"/>
+      <c r="J2" s="815"/>
+      <c r="K2" s="815"/>
+      <c r="L2" s="815"/>
+      <c r="M2" s="815"/>
+      <c r="N2" s="815"/>
+      <c r="O2" s="815"/>
+      <c r="P2" s="815"/>
+      <c r="Q2" s="815"/>
+      <c r="R2" s="815"/>
+      <c r="S2" s="815"/>
+      <c r="T2" s="849"/>
+      <c r="U2" s="865" t="s">
         <v>168</v>
       </c>
-      <c r="V2" s="852"/>
-      <c r="W2" s="852"/>
-      <c r="X2" s="864" t="str">
+      <c r="V2" s="866"/>
+      <c r="W2" s="866"/>
+      <c r="X2" s="879" t="str">
         <f>+R4</f>
         <v>Dec-21 (Actual.)</v>
       </c>
-      <c r="Y2" s="864"/>
-      <c r="Z2" s="864"/>
+      <c r="Y2" s="879"/>
+      <c r="Z2" s="879"/>
       <c r="AA2" s="375" t="s">
         <v>169</v>
       </c>
@@ -34832,10 +34832,10 @@
       <c r="AJ2" s="383"/>
       <c r="AK2" s="383"/>
       <c r="AL2" s="384"/>
-      <c r="AO2" s="867" t="s">
+      <c r="AO2" s="858" t="s">
         <v>295</v>
       </c>
-      <c r="AP2" s="867"/>
+      <c r="AP2" s="858"/>
       <c r="AQ2" s="477" t="str">
         <f>+AH4</f>
         <v xml:space="preserve">  Upto 'Dec-21 (Actual.)</v>
@@ -34844,88 +34844,88 @@
       <c r="AS2" s="478"/>
     </row>
     <row r="3" spans="1:46" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="851" t="s">
+      <c r="A3" s="865" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="852"/>
-      <c r="C3" s="852"/>
-      <c r="D3" s="852"/>
-      <c r="E3" s="852"/>
-      <c r="F3" s="852"/>
-      <c r="G3" s="852"/>
-      <c r="H3" s="853" t="s">
+      <c r="B3" s="866"/>
+      <c r="C3" s="866"/>
+      <c r="D3" s="866"/>
+      <c r="E3" s="866"/>
+      <c r="F3" s="866"/>
+      <c r="G3" s="866"/>
+      <c r="H3" s="867" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="833"/>
-      <c r="J3" s="833"/>
-      <c r="K3" s="833"/>
-      <c r="L3" s="833"/>
-      <c r="M3" s="854"/>
-      <c r="N3" s="852" t="s">
+      <c r="I3" s="868"/>
+      <c r="J3" s="868"/>
+      <c r="K3" s="868"/>
+      <c r="L3" s="868"/>
+      <c r="M3" s="869"/>
+      <c r="N3" s="866" t="s">
         <v>114</v>
       </c>
-      <c r="O3" s="852"/>
-      <c r="P3" s="852"/>
-      <c r="Q3" s="852"/>
-      <c r="R3" s="852"/>
-      <c r="S3" s="852"/>
-      <c r="T3" s="855"/>
+      <c r="O3" s="866"/>
+      <c r="P3" s="866"/>
+      <c r="Q3" s="866"/>
+      <c r="R3" s="866"/>
+      <c r="S3" s="866"/>
+      <c r="T3" s="870"/>
       <c r="U3" s="385"/>
       <c r="V3" s="386"/>
       <c r="W3" s="374"/>
       <c r="X3" s="374"/>
       <c r="Y3" s="673"/>
-      <c r="Z3" s="856" t="s">
+      <c r="Z3" s="871" t="s">
         <v>170</v>
       </c>
-      <c r="AA3" s="856"/>
-      <c r="AB3" s="857"/>
-      <c r="AC3" s="858" t="s">
+      <c r="AA3" s="871"/>
+      <c r="AB3" s="872"/>
+      <c r="AC3" s="873" t="s">
         <v>171</v>
       </c>
-      <c r="AD3" s="859"/>
-      <c r="AE3" s="859"/>
-      <c r="AF3" s="859"/>
-      <c r="AG3" s="859"/>
-      <c r="AH3" s="859"/>
-      <c r="AI3" s="859"/>
-      <c r="AJ3" s="859"/>
-      <c r="AK3" s="859"/>
-      <c r="AL3" s="860"/>
-      <c r="AS3" s="868" t="s">
+      <c r="AD3" s="874"/>
+      <c r="AE3" s="874"/>
+      <c r="AF3" s="874"/>
+      <c r="AG3" s="874"/>
+      <c r="AH3" s="874"/>
+      <c r="AI3" s="874"/>
+      <c r="AJ3" s="874"/>
+      <c r="AK3" s="874"/>
+      <c r="AL3" s="875"/>
+      <c r="AS3" s="859" t="s">
         <v>296</v>
       </c>
-      <c r="AT3" s="869"/>
+      <c r="AT3" s="860"/>
     </row>
     <row r="4" spans="1:46" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="834" t="s">
+      <c r="A4" s="881" t="s">
         <v>115</v>
       </c>
-      <c r="B4" s="835"/>
-      <c r="C4" s="835"/>
-      <c r="D4" s="835"/>
-      <c r="E4" s="835"/>
-      <c r="F4" s="835"/>
-      <c r="G4" s="836"/>
-      <c r="H4" s="837" t="s">
+      <c r="B4" s="882"/>
+      <c r="C4" s="882"/>
+      <c r="D4" s="882"/>
+      <c r="E4" s="882"/>
+      <c r="F4" s="882"/>
+      <c r="G4" s="883"/>
+      <c r="H4" s="884" t="s">
         <v>115</v>
       </c>
-      <c r="I4" s="838"/>
-      <c r="J4" s="838"/>
-      <c r="K4" s="838"/>
-      <c r="L4" s="838"/>
-      <c r="M4" s="839"/>
-      <c r="N4" s="840" t="s">
+      <c r="I4" s="885"/>
+      <c r="J4" s="885"/>
+      <c r="K4" s="885"/>
+      <c r="L4" s="885"/>
+      <c r="M4" s="886"/>
+      <c r="N4" s="887" t="s">
         <v>114</v>
       </c>
-      <c r="O4" s="841"/>
-      <c r="P4" s="841"/>
-      <c r="Q4" s="841"/>
-      <c r="R4" s="842" t="s">
+      <c r="O4" s="888"/>
+      <c r="P4" s="888"/>
+      <c r="Q4" s="888"/>
+      <c r="R4" s="889" t="s">
         <v>407</v>
       </c>
-      <c r="S4" s="843"/>
-      <c r="T4" s="844"/>
+      <c r="S4" s="890"/>
+      <c r="T4" s="891"/>
       <c r="U4" s="387" t="s">
         <v>172</v>
       </c>
@@ -34945,26 +34945,26 @@
       <c r="Z4" s="469" t="s">
         <v>174</v>
       </c>
-      <c r="AA4" s="845" t="s">
+      <c r="AA4" s="861" t="s">
         <v>175</v>
       </c>
-      <c r="AB4" s="845"/>
+      <c r="AB4" s="861"/>
       <c r="AC4" s="693" t="s">
         <v>117</v>
       </c>
       <c r="AD4" s="647" t="s">
         <v>371</v>
       </c>
-      <c r="AE4" s="874" t="s">
+      <c r="AE4" s="862" t="s">
         <v>430</v>
       </c>
-      <c r="AF4" s="875"/>
-      <c r="AG4" s="876"/>
-      <c r="AH4" s="845" t="s">
+      <c r="AF4" s="863"/>
+      <c r="AG4" s="864"/>
+      <c r="AH4" s="861" t="s">
         <v>408</v>
       </c>
-      <c r="AI4" s="845"/>
-      <c r="AJ4" s="845"/>
+      <c r="AI4" s="861"/>
+      <c r="AJ4" s="861"/>
       <c r="AK4" s="469" t="s">
         <v>177</v>
       </c>
@@ -35025,15 +35025,15 @@
       <c r="K5" s="313"/>
       <c r="L5" s="313"/>
       <c r="M5" s="313"/>
-      <c r="N5" s="846" t="s">
+      <c r="N5" s="892" t="s">
         <v>120</v>
       </c>
-      <c r="O5" s="847"/>
-      <c r="P5" s="847"/>
-      <c r="Q5" s="847"/>
-      <c r="R5" s="847"/>
-      <c r="S5" s="847"/>
-      <c r="T5" s="848"/>
+      <c r="O5" s="893"/>
+      <c r="P5" s="893"/>
+      <c r="Q5" s="893"/>
+      <c r="R5" s="893"/>
+      <c r="S5" s="893"/>
+      <c r="T5" s="894"/>
       <c r="U5" s="387"/>
       <c r="V5" s="391" t="str">
         <f>+O8</f>
@@ -35054,10 +35054,10 @@
       <c r="Z5" s="469" t="s">
         <v>179</v>
       </c>
-      <c r="AA5" s="845" t="s">
+      <c r="AA5" s="861" t="s">
         <v>180</v>
       </c>
-      <c r="AB5" s="845"/>
+      <c r="AB5" s="861"/>
       <c r="AC5" s="392" t="s">
         <v>100</v>
       </c>
@@ -35139,7 +35139,7 @@
       <c r="K6" s="313"/>
       <c r="L6" s="313"/>
       <c r="M6" s="313"/>
-      <c r="N6" s="826" t="s">
+      <c r="N6" s="895" t="s">
         <v>123</v>
       </c>
       <c r="O6" s="471" t="s">
@@ -35155,10 +35155,10 @@
         <f>+E5</f>
         <v>Actual</v>
       </c>
-      <c r="S6" s="849" t="s">
+      <c r="S6" s="843" t="s">
         <v>126</v>
       </c>
-      <c r="T6" s="850"/>
+      <c r="T6" s="896"/>
       <c r="U6" s="387">
         <v>1</v>
       </c>
@@ -35177,10 +35177,10 @@
       <c r="Z6" s="469">
         <v>6</v>
       </c>
-      <c r="AA6" s="845">
+      <c r="AA6" s="861">
         <v>7</v>
       </c>
-      <c r="AB6" s="845"/>
+      <c r="AB6" s="861"/>
       <c r="AC6" s="658">
         <v>1</v>
       </c>
@@ -35262,7 +35262,7 @@
       <c r="K7" s="313"/>
       <c r="L7" s="313"/>
       <c r="M7" s="313"/>
-      <c r="N7" s="826"/>
+      <c r="N7" s="895"/>
       <c r="O7" s="471"/>
       <c r="P7" s="471" t="s">
         <v>128</v>
@@ -35298,11 +35298,11 @@
         <f>+Y7-X7</f>
         <v>-1.0300000000000011</v>
       </c>
-      <c r="AA7" s="825">
+      <c r="AA7" s="880">
         <f t="shared" ref="AA7:AA20" si="1">SUM(Y7-W7)/W7*100</f>
         <v>9.8121761658031001</v>
       </c>
-      <c r="AB7" s="825">
+      <c r="AB7" s="880">
         <f t="shared" ref="AB7:AB20" si="2">SUM(Y7-W7)/W7*100</f>
         <v>9.8121761658031001</v>
       </c>
@@ -35393,7 +35393,7 @@
       <c r="K8" s="313"/>
       <c r="L8" s="313"/>
       <c r="M8" s="313"/>
-      <c r="N8" s="826"/>
+      <c r="N8" s="895"/>
       <c r="O8" s="319" t="str">
         <f>+B24</f>
         <v>2020-21</v>
@@ -35435,11 +35435,11 @@
         <f t="shared" ref="Z8:Z17" si="7">Y8-X8</f>
         <v>16.209999999999994</v>
       </c>
-      <c r="AA8" s="825">
+      <c r="AA8" s="880">
         <f t="shared" si="1"/>
         <v>18.7017001545595</v>
       </c>
-      <c r="AB8" s="825">
+      <c r="AB8" s="880">
         <f t="shared" si="2"/>
         <v>18.7017001545595</v>
       </c>
@@ -35570,11 +35570,11 @@
         <f t="shared" si="7"/>
         <v>0.36999999999999744</v>
       </c>
-      <c r="AA9" s="825">
+      <c r="AA9" s="880">
         <f t="shared" si="1"/>
         <v>-30.636833046471608</v>
       </c>
-      <c r="AB9" s="825">
+      <c r="AB9" s="880">
         <f t="shared" si="2"/>
         <v>-30.636833046471608</v>
       </c>
@@ -35710,11 +35710,11 @@
         <f t="shared" si="7"/>
         <v>-0.85999999999999943</v>
       </c>
-      <c r="AA10" s="825">
+      <c r="AA10" s="880">
         <f t="shared" si="1"/>
         <v>-26.775231963643247</v>
       </c>
-      <c r="AB10" s="825">
+      <c r="AB10" s="880">
         <f t="shared" si="2"/>
         <v>-26.775231963643247</v>
       </c>
@@ -35848,11 +35848,11 @@
         <f t="shared" si="7"/>
         <v>17.670000000000002</v>
       </c>
-      <c r="AA11" s="825">
+      <c r="AA11" s="880">
         <f t="shared" si="1"/>
         <v>30.80945408910269</v>
       </c>
-      <c r="AB11" s="825">
+      <c r="AB11" s="880">
         <f t="shared" si="2"/>
         <v>30.80945408910269</v>
       </c>
@@ -35986,11 +35986,11 @@
         <f t="shared" si="7"/>
         <v>15.14</v>
       </c>
-      <c r="AA12" s="825">
+      <c r="AA12" s="880">
         <f t="shared" si="1"/>
         <v>30.918820151396499</v>
       </c>
-      <c r="AB12" s="825">
+      <c r="AB12" s="880">
         <f t="shared" si="2"/>
         <v>30.918820151396499</v>
       </c>
@@ -36126,11 +36126,11 @@
         <f t="shared" si="7"/>
         <v>5.2700000000000102</v>
       </c>
-      <c r="AA13" s="825">
+      <c r="AA13" s="880">
         <f t="shared" si="1"/>
         <v>-4.3491176994830925</v>
       </c>
-      <c r="AB13" s="825">
+      <c r="AB13" s="880">
         <f t="shared" si="2"/>
         <v>-4.3491176994830925</v>
       </c>
@@ -36267,11 +36267,11 @@
         <f t="shared" si="7"/>
         <v>48.379999999999995</v>
       </c>
-      <c r="AA14" s="825">
+      <c r="AA14" s="880">
         <f t="shared" si="1"/>
         <v>47.778276481148993</v>
       </c>
-      <c r="AB14" s="825">
+      <c r="AB14" s="880">
         <f t="shared" si="2"/>
         <v>47.778276481148993</v>
       </c>
@@ -36361,12 +36361,12 @@
         <f t="shared" si="12"/>
         <v>16.41</v>
       </c>
-      <c r="H15" s="833"/>
-      <c r="I15" s="833"/>
-      <c r="J15" s="833"/>
-      <c r="K15" s="833"/>
-      <c r="L15" s="833"/>
-      <c r="M15" s="833"/>
+      <c r="H15" s="868"/>
+      <c r="I15" s="868"/>
+      <c r="J15" s="868"/>
+      <c r="K15" s="868"/>
+      <c r="L15" s="868"/>
+      <c r="M15" s="868"/>
       <c r="N15" s="474" t="s">
         <v>16</v>
       </c>
@@ -36409,11 +36409,11 @@
         <f t="shared" si="7"/>
         <v>3.0100000000000016</v>
       </c>
-      <c r="AA15" s="825">
+      <c r="AA15" s="880">
         <f t="shared" si="1"/>
         <v>17.885867483722716</v>
       </c>
-      <c r="AB15" s="825">
+      <c r="AB15" s="880">
         <f t="shared" si="2"/>
         <v>17.885867483722716</v>
       </c>
@@ -36476,23 +36476,23 @@
       </c>
     </row>
     <row r="16" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="823" t="s">
+      <c r="A16" s="813" t="s">
         <v>135</v>
       </c>
-      <c r="B16" s="823"/>
-      <c r="C16" s="823"/>
-      <c r="D16" s="823"/>
-      <c r="E16" s="823"/>
-      <c r="F16" s="823"/>
+      <c r="B16" s="813"/>
+      <c r="C16" s="813"/>
+      <c r="D16" s="813"/>
+      <c r="E16" s="813"/>
+      <c r="F16" s="813"/>
       <c r="G16" s="328"/>
-      <c r="H16" s="824" t="s">
+      <c r="H16" s="897" t="s">
         <v>135</v>
       </c>
-      <c r="I16" s="824"/>
-      <c r="J16" s="824"/>
-      <c r="K16" s="824"/>
-      <c r="L16" s="824"/>
-      <c r="M16" s="824"/>
+      <c r="I16" s="897"/>
+      <c r="J16" s="897"/>
+      <c r="K16" s="897"/>
+      <c r="L16" s="897"/>
+      <c r="M16" s="897"/>
       <c r="N16" s="474" t="s">
         <v>136</v>
       </c>
@@ -36539,11 +36539,11 @@
         <f t="shared" si="7"/>
         <v>22.360000000000003</v>
       </c>
-      <c r="AA16" s="825">
+      <c r="AA16" s="880">
         <f t="shared" si="1"/>
         <v>-1.4239605088285552</v>
       </c>
-      <c r="AB16" s="825">
+      <c r="AB16" s="880">
         <f t="shared" si="2"/>
         <v>-1.4239605088285552</v>
       </c>
@@ -36629,15 +36629,15 @@
       <c r="K17" s="313"/>
       <c r="L17" s="313"/>
       <c r="M17" s="313"/>
-      <c r="N17" s="830" t="s">
+      <c r="N17" s="902" t="s">
         <v>410</v>
       </c>
-      <c r="O17" s="831"/>
-      <c r="P17" s="831"/>
-      <c r="Q17" s="831"/>
-      <c r="R17" s="831"/>
-      <c r="S17" s="831"/>
-      <c r="T17" s="832"/>
+      <c r="O17" s="903"/>
+      <c r="P17" s="903"/>
+      <c r="Q17" s="903"/>
+      <c r="R17" s="903"/>
+      <c r="S17" s="903"/>
+      <c r="T17" s="904"/>
       <c r="U17" s="350" t="s">
         <v>206</v>
       </c>
@@ -36657,11 +36657,11 @@
         <f t="shared" si="7"/>
         <v>-1.0100000000000016</v>
       </c>
-      <c r="AA17" s="825">
+      <c r="AA17" s="880">
         <f>SUM(Y17-W17)/W17*100</f>
         <v>7.2649572649572711</v>
       </c>
-      <c r="AB17" s="825">
+      <c r="AB17" s="880">
         <f t="shared" si="2"/>
         <v>7.2649572649572711</v>
       </c>
@@ -36754,13 +36754,13 @@
       <c r="K18" s="313"/>
       <c r="L18" s="313"/>
       <c r="M18" s="313"/>
-      <c r="N18" s="826" t="s">
+      <c r="N18" s="895" t="s">
         <v>123</v>
       </c>
       <c r="O18" s="470" t="s">
         <v>140</v>
       </c>
-      <c r="P18" s="797" t="s">
+      <c r="P18" s="898" t="s">
         <v>428</v>
       </c>
       <c r="Q18" s="470" t="s">
@@ -36798,11 +36798,11 @@
         <f t="shared" ref="Z18" si="19">SUM(Z7:Z17)</f>
         <v>125.51</v>
       </c>
-      <c r="AA18" s="827">
+      <c r="AA18" s="900">
         <f t="shared" si="1"/>
         <v>10.957028925127977</v>
       </c>
-      <c r="AB18" s="827">
+      <c r="AB18" s="900">
         <f t="shared" si="2"/>
         <v>10.957028925127977</v>
       </c>
@@ -36871,12 +36871,12 @@
       <c r="K19" s="313"/>
       <c r="L19" s="313"/>
       <c r="M19" s="313"/>
-      <c r="N19" s="826"/>
+      <c r="N19" s="895"/>
       <c r="O19" s="334" t="str">
         <f>+C6</f>
         <v>Dec-20</v>
       </c>
-      <c r="P19" s="798"/>
+      <c r="P19" s="899"/>
       <c r="Q19" s="315" t="str">
         <f>+D6</f>
         <v>Dec-21</v>
@@ -36910,11 +36910,11 @@
         <f>Y19-X19</f>
         <v>8.68</v>
       </c>
-      <c r="AA19" s="825">
+      <c r="AA19" s="880">
         <f t="shared" si="1"/>
         <v>-222.42595204513398</v>
       </c>
-      <c r="AB19" s="825">
+      <c r="AB19" s="880">
         <f t="shared" si="2"/>
         <v>-222.42595204513398</v>
       </c>
@@ -37047,41 +37047,41 @@
         <f t="shared" si="23"/>
         <v>134.19</v>
       </c>
-      <c r="AA20" s="827">
+      <c r="AA20" s="900">
         <f t="shared" si="1"/>
         <v>13.445314967142377</v>
       </c>
-      <c r="AB20" s="827">
+      <c r="AB20" s="900">
         <f t="shared" si="2"/>
         <v>13.445314967142377</v>
       </c>
-      <c r="AC20" s="870">
+      <c r="AC20" s="787">
         <v>82.12</v>
       </c>
       <c r="AD20" s="397" t="s">
         <v>212</v>
       </c>
-      <c r="AE20" s="870">
+      <c r="AE20" s="787">
         <v>88.43</v>
       </c>
-      <c r="AF20" s="870"/>
-      <c r="AG20" s="870">
+      <c r="AF20" s="787"/>
+      <c r="AG20" s="787">
         <f>AE20-AF20</f>
         <v>88.43</v>
       </c>
-      <c r="AH20" s="870">
+      <c r="AH20" s="787">
         <v>38.619999999999997</v>
       </c>
-      <c r="AI20" s="870"/>
-      <c r="AJ20" s="870">
+      <c r="AI20" s="787"/>
+      <c r="AJ20" s="787">
         <f t="shared" si="11"/>
         <v>38.619999999999997</v>
       </c>
-      <c r="AK20" s="870">
+      <c r="AK20" s="787">
         <f>AE20-AH20</f>
         <v>49.810000000000009</v>
       </c>
-      <c r="AL20" s="872">
+      <c r="AL20" s="811">
         <f t="shared" si="10"/>
         <v>43.7</v>
       </c>
@@ -37115,23 +37115,23 @@
       </c>
     </row>
     <row r="21" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="810">
+      <c r="A21" s="901">
         <v>1.38</v>
       </c>
-      <c r="B21" s="810"/>
-      <c r="C21" s="810"/>
-      <c r="D21" s="810"/>
-      <c r="E21" s="810"/>
-      <c r="F21" s="810"/>
-      <c r="G21" s="810"/>
-      <c r="H21" s="823" t="s">
+      <c r="B21" s="901"/>
+      <c r="C21" s="901"/>
+      <c r="D21" s="901"/>
+      <c r="E21" s="901"/>
+      <c r="F21" s="901"/>
+      <c r="G21" s="901"/>
+      <c r="H21" s="813" t="s">
         <v>149</v>
       </c>
-      <c r="I21" s="823"/>
-      <c r="J21" s="823"/>
-      <c r="K21" s="823"/>
-      <c r="L21" s="823"/>
-      <c r="M21" s="823"/>
+      <c r="I21" s="813"/>
+      <c r="J21" s="813"/>
+      <c r="K21" s="813"/>
+      <c r="L21" s="813"/>
+      <c r="M21" s="813"/>
       <c r="N21" s="336" t="s">
         <v>11</v>
       </c>
@@ -37155,26 +37155,26 @@
         <f t="shared" ref="T21:T27" si="25">SUM(R21-O21)/O21*100</f>
         <v>160.29341656697221</v>
       </c>
-      <c r="U21" s="828"/>
-      <c r="V21" s="829"/>
-      <c r="W21" s="829"/>
-      <c r="X21" s="829"/>
-      <c r="Y21" s="829"/>
-      <c r="Z21" s="829"/>
-      <c r="AA21" s="829"/>
+      <c r="U21" s="878"/>
+      <c r="V21" s="815"/>
+      <c r="W21" s="815"/>
+      <c r="X21" s="815"/>
+      <c r="Y21" s="815"/>
+      <c r="Z21" s="815"/>
+      <c r="AA21" s="815"/>
       <c r="AB21" s="499"/>
-      <c r="AC21" s="871"/>
+      <c r="AC21" s="788"/>
       <c r="AD21" s="397" t="s">
         <v>313</v>
       </c>
-      <c r="AE21" s="871"/>
-      <c r="AF21" s="871"/>
-      <c r="AG21" s="871"/>
-      <c r="AH21" s="871"/>
-      <c r="AI21" s="871"/>
-      <c r="AJ21" s="871"/>
-      <c r="AK21" s="871"/>
-      <c r="AL21" s="873"/>
+      <c r="AE21" s="788"/>
+      <c r="AF21" s="788"/>
+      <c r="AG21" s="788"/>
+      <c r="AH21" s="788"/>
+      <c r="AI21" s="788"/>
+      <c r="AJ21" s="788"/>
+      <c r="AK21" s="788"/>
+      <c r="AL21" s="812"/>
       <c r="AN21" s="496">
         <f>+V20</f>
         <v>7801.3099999999986</v>
@@ -37204,7 +37204,7 @@
       </c>
     </row>
     <row r="22" spans="1:46" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="797" t="s">
+      <c r="A22" s="898" t="s">
         <v>123</v>
       </c>
       <c r="B22" s="667" t="s">
@@ -37255,18 +37255,18 @@
         <f t="shared" si="25"/>
         <v>137.39246797935385</v>
       </c>
-      <c r="U22" s="799" t="s">
+      <c r="U22" s="912" t="s">
         <v>213</v>
       </c>
-      <c r="V22" s="800"/>
-      <c r="W22" s="800"/>
-      <c r="X22" s="800"/>
-      <c r="Y22" s="801" t="str">
+      <c r="V22" s="832"/>
+      <c r="W22" s="832"/>
+      <c r="X22" s="832"/>
+      <c r="Y22" s="913" t="str">
         <f>+X2</f>
         <v>Dec-21 (Actual.)</v>
       </c>
-      <c r="Z22" s="802"/>
-      <c r="AA22" s="802"/>
+      <c r="Z22" s="914"/>
+      <c r="AA22" s="914"/>
       <c r="AB22" s="344" t="str">
         <f>+AA2</f>
         <v>(Net)</v>
@@ -37325,7 +37325,7 @@
       </c>
     </row>
     <row r="23" spans="1:46" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="798"/>
+      <c r="A23" s="899"/>
       <c r="B23" s="667"/>
       <c r="C23" s="487" t="s">
         <v>152</v>
@@ -37336,10 +37336,10 @@
       <c r="E23" s="315" t="s">
         <v>128</v>
       </c>
-      <c r="F23" s="803" t="s">
+      <c r="F23" s="915" t="s">
         <v>121</v>
       </c>
-      <c r="G23" s="805" t="s">
+      <c r="G23" s="917" t="s">
         <v>122</v>
       </c>
       <c r="H23" s="339"/>
@@ -37468,8 +37468,8 @@
         <f>+D24</f>
         <v>Dec-21</v>
       </c>
-      <c r="F24" s="804"/>
-      <c r="G24" s="806"/>
+      <c r="F24" s="916"/>
+      <c r="G24" s="918"/>
       <c r="H24" s="340"/>
       <c r="I24" s="339"/>
       <c r="J24" s="339"/>
@@ -37525,33 +37525,33 @@
       <c r="AB24" s="389" t="s">
         <v>218</v>
       </c>
-      <c r="AC24" s="870">
+      <c r="AC24" s="787">
         <v>29.85</v>
       </c>
       <c r="AD24" s="397" t="s">
         <v>219</v>
       </c>
-      <c r="AE24" s="870">
+      <c r="AE24" s="787">
         <v>23.11</v>
       </c>
-      <c r="AF24" s="880"/>
-      <c r="AG24" s="877">
+      <c r="AF24" s="816"/>
+      <c r="AG24" s="809">
         <f>AE24-AF24</f>
         <v>23.11</v>
       </c>
-      <c r="AH24" s="870">
+      <c r="AH24" s="787">
         <v>18.989999999999998</v>
       </c>
-      <c r="AI24" s="877"/>
-      <c r="AJ24" s="877">
+      <c r="AI24" s="809"/>
+      <c r="AJ24" s="809">
         <f>AH24-AI25</f>
         <v>18.989999999999998</v>
       </c>
-      <c r="AK24" s="877">
+      <c r="AK24" s="809">
         <f>AE25-AH24</f>
         <v>-18.989999999999998</v>
       </c>
-      <c r="AL24" s="872">
+      <c r="AL24" s="811">
         <f t="shared" si="10"/>
         <v>82.2</v>
       </c>
@@ -37659,18 +37659,18 @@
         <f t="shared" ref="AB25:AB44" si="31">SUM(Y25-W25)/W25*100</f>
         <v>4.963839579224202</v>
       </c>
-      <c r="AC25" s="871"/>
+      <c r="AC25" s="788"/>
       <c r="AD25" s="397" t="s">
         <v>318</v>
       </c>
-      <c r="AE25" s="871"/>
-      <c r="AF25" s="881"/>
-      <c r="AG25" s="878"/>
-      <c r="AH25" s="871"/>
-      <c r="AI25" s="878"/>
-      <c r="AJ25" s="878"/>
-      <c r="AK25" s="878"/>
-      <c r="AL25" s="873"/>
+      <c r="AE25" s="788"/>
+      <c r="AF25" s="817"/>
+      <c r="AG25" s="810"/>
+      <c r="AH25" s="788"/>
+      <c r="AI25" s="810"/>
+      <c r="AJ25" s="810"/>
+      <c r="AK25" s="810"/>
+      <c r="AL25" s="812"/>
       <c r="AN25" s="507">
         <f>J41</f>
         <v>79.22</v>
@@ -38168,30 +38168,30 @@
       <c r="R30" s="344"/>
       <c r="S30" s="346"/>
       <c r="T30" s="347"/>
-      <c r="U30" s="815" t="s">
+      <c r="U30" s="926" t="s">
         <v>196</v>
       </c>
-      <c r="V30" s="817">
+      <c r="V30" s="807">
         <v>1094.8</v>
       </c>
-      <c r="W30" s="819">
+      <c r="W30" s="803">
         <v>754.52</v>
       </c>
-      <c r="X30" s="821">
+      <c r="X30" s="805">
         <v>798.05</v>
       </c>
-      <c r="Y30" s="821">
+      <c r="Y30" s="805">
         <v>902.71</v>
       </c>
-      <c r="Z30" s="817">
+      <c r="Z30" s="807">
         <f>Y30-X30</f>
         <v>104.66000000000008</v>
       </c>
-      <c r="AA30" s="817">
+      <c r="AA30" s="807">
         <f>+Y30/V30*100</f>
         <v>82.454329557910128</v>
       </c>
-      <c r="AB30" s="917">
+      <c r="AB30" s="855">
         <f>SUM(Y30-W30)/W30*100</f>
         <v>19.64030111859196</v>
       </c>
@@ -38240,14 +38240,14 @@
       <c r="R31" s="353"/>
       <c r="S31" s="353"/>
       <c r="T31" s="354"/>
-      <c r="U31" s="816"/>
-      <c r="V31" s="818"/>
-      <c r="W31" s="820"/>
-      <c r="X31" s="822"/>
-      <c r="Y31" s="822"/>
-      <c r="Z31" s="818"/>
-      <c r="AA31" s="818"/>
-      <c r="AB31" s="918"/>
+      <c r="U31" s="927"/>
+      <c r="V31" s="808"/>
+      <c r="W31" s="804"/>
+      <c r="X31" s="806"/>
+      <c r="Y31" s="806"/>
+      <c r="Z31" s="808"/>
+      <c r="AA31" s="808"/>
+      <c r="AB31" s="856"/>
       <c r="AC31" s="695">
         <f>SUM(AC7:AC29)</f>
         <v>4160.6999999999989</v>
@@ -38313,30 +38313,30 @@
       <c r="R32" s="656"/>
       <c r="S32" s="657"/>
       <c r="T32" s="354"/>
-      <c r="U32" s="815" t="s">
+      <c r="U32" s="926" t="s">
         <v>198</v>
       </c>
-      <c r="V32" s="817">
+      <c r="V32" s="807">
         <v>2539.6</v>
       </c>
-      <c r="W32" s="819">
+      <c r="W32" s="803">
         <v>2111.5700000000002</v>
       </c>
-      <c r="X32" s="821">
+      <c r="X32" s="805">
         <v>2151.4299999999998</v>
       </c>
-      <c r="Y32" s="821">
+      <c r="Y32" s="805">
         <v>2095.11</v>
       </c>
-      <c r="Z32" s="817">
+      <c r="Z32" s="807">
         <f>Y32-X32</f>
         <v>-56.319999999999709</v>
       </c>
-      <c r="AA32" s="817">
+      <c r="AA32" s="807">
         <f>+Y32/V32*100</f>
         <v>82.497637423216261</v>
       </c>
-      <c r="AB32" s="817">
+      <c r="AB32" s="807">
         <f>SUM(Y32-W32)/W32*100</f>
         <v>-0.77951476863187275</v>
       </c>
@@ -38353,36 +38353,36 @@
       <c r="AM32" s="511"/>
     </row>
     <row r="33" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="807"/>
-      <c r="B33" s="807"/>
-      <c r="C33" s="807"/>
-      <c r="D33" s="807"/>
-      <c r="E33" s="807"/>
-      <c r="F33" s="807"/>
-      <c r="G33" s="807"/>
+      <c r="A33" s="919"/>
+      <c r="B33" s="919"/>
+      <c r="C33" s="919"/>
+      <c r="D33" s="919"/>
+      <c r="E33" s="919"/>
+      <c r="F33" s="919"/>
+      <c r="G33" s="919"/>
       <c r="H33" s="355"/>
       <c r="I33" s="356"/>
       <c r="J33" s="356"/>
       <c r="K33" s="356"/>
       <c r="L33" s="318"/>
       <c r="M33" s="313"/>
-      <c r="N33" s="808" t="s">
+      <c r="N33" s="920" t="s">
         <v>154</v>
       </c>
-      <c r="O33" s="808"/>
-      <c r="P33" s="808"/>
-      <c r="Q33" s="808"/>
-      <c r="R33" s="808"/>
-      <c r="S33" s="809"/>
+      <c r="O33" s="920"/>
+      <c r="P33" s="920"/>
+      <c r="Q33" s="920"/>
+      <c r="R33" s="920"/>
+      <c r="S33" s="921"/>
       <c r="T33" s="357"/>
-      <c r="U33" s="816"/>
-      <c r="V33" s="818"/>
-      <c r="W33" s="820"/>
-      <c r="X33" s="822"/>
-      <c r="Y33" s="822"/>
-      <c r="Z33" s="818"/>
-      <c r="AA33" s="818"/>
-      <c r="AB33" s="818"/>
+      <c r="U33" s="927"/>
+      <c r="V33" s="808"/>
+      <c r="W33" s="804"/>
+      <c r="X33" s="806"/>
+      <c r="Y33" s="806"/>
+      <c r="Z33" s="808"/>
+      <c r="AA33" s="808"/>
+      <c r="AB33" s="808"/>
       <c r="AC33" s="326">
         <v>198.76</v>
       </c>
@@ -38420,21 +38420,21 @@
       <c r="AN33" s="478"/>
     </row>
     <row r="34" spans="1:40" s="478" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="810"/>
-      <c r="B34" s="810"/>
-      <c r="C34" s="810"/>
-      <c r="D34" s="810"/>
-      <c r="E34" s="810"/>
-      <c r="F34" s="810"/>
-      <c r="G34" s="811"/>
-      <c r="H34" s="812" t="s">
+      <c r="A34" s="901"/>
+      <c r="B34" s="901"/>
+      <c r="C34" s="901"/>
+      <c r="D34" s="901"/>
+      <c r="E34" s="901"/>
+      <c r="F34" s="901"/>
+      <c r="G34" s="922"/>
+      <c r="H34" s="923" t="s">
         <v>155</v>
       </c>
-      <c r="I34" s="813"/>
-      <c r="J34" s="813"/>
-      <c r="K34" s="813"/>
-      <c r="L34" s="813"/>
-      <c r="M34" s="814"/>
+      <c r="I34" s="924"/>
+      <c r="J34" s="924"/>
+      <c r="K34" s="924"/>
+      <c r="L34" s="924"/>
+      <c r="M34" s="925"/>
       <c r="N34" s="358"/>
       <c r="O34" s="359"/>
       <c r="P34" s="359"/>
@@ -38510,7 +38510,7 @@
       <c r="AM34" s="512"/>
     </row>
     <row r="35" spans="1:40" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="882" t="s">
+      <c r="A35" s="818" t="s">
         <v>123</v>
       </c>
       <c r="B35" s="361" t="s">
@@ -38532,18 +38532,18 @@
       <c r="G35" s="361" t="s">
         <v>151</v>
       </c>
-      <c r="H35" s="883" t="s">
+      <c r="H35" s="819" t="s">
         <v>416</v>
       </c>
-      <c r="I35" s="885" t="s">
+      <c r="I35" s="821" t="s">
         <v>417</v>
       </c>
-      <c r="J35" s="887" t="s">
+      <c r="J35" s="823" t="s">
         <v>401</v>
       </c>
-      <c r="K35" s="888"/>
-      <c r="L35" s="889"/>
-      <c r="M35" s="893" t="s">
+      <c r="K35" s="824"/>
+      <c r="L35" s="825"/>
+      <c r="M35" s="829" t="s">
         <v>418</v>
       </c>
       <c r="N35" s="362"/>
@@ -38621,7 +38621,7 @@
       <c r="AN35" s="478"/>
     </row>
     <row r="36" spans="1:40" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="882"/>
+      <c r="A36" s="818"/>
       <c r="B36" s="471" t="str">
         <f>+B6</f>
         <v>2021-22</v>
@@ -38644,18 +38644,18 @@
       <c r="G36" s="471" t="s">
         <v>162</v>
       </c>
-      <c r="H36" s="884"/>
-      <c r="I36" s="886"/>
-      <c r="J36" s="890"/>
-      <c r="K36" s="891"/>
-      <c r="L36" s="892"/>
-      <c r="M36" s="894"/>
-      <c r="N36" s="895" t="s">
+      <c r="H36" s="820"/>
+      <c r="I36" s="822"/>
+      <c r="J36" s="826"/>
+      <c r="K36" s="827"/>
+      <c r="L36" s="828"/>
+      <c r="M36" s="830"/>
+      <c r="N36" s="831" t="s">
         <v>163</v>
       </c>
-      <c r="O36" s="800"/>
-      <c r="P36" s="800"/>
-      <c r="Q36" s="789"/>
+      <c r="O36" s="832"/>
+      <c r="P36" s="832"/>
+      <c r="Q36" s="794"/>
       <c r="R36" s="317">
         <f>R38-R37</f>
         <v>16.04</v>
@@ -38765,21 +38765,21 @@
       <c r="I37" s="767">
         <v>18.47</v>
       </c>
-      <c r="J37" s="896">
+      <c r="J37" s="789">
         <f>M37-H37</f>
         <v>71.92</v>
       </c>
-      <c r="K37" s="897"/>
-      <c r="L37" s="898"/>
+      <c r="K37" s="833"/>
+      <c r="L37" s="834"/>
       <c r="M37" s="768">
         <v>97.39</v>
       </c>
-      <c r="N37" s="895" t="s">
+      <c r="N37" s="831" t="s">
         <v>164</v>
       </c>
-      <c r="O37" s="800"/>
-      <c r="P37" s="800"/>
-      <c r="Q37" s="789"/>
+      <c r="O37" s="832"/>
+      <c r="P37" s="832"/>
+      <c r="Q37" s="794"/>
       <c r="R37" s="317">
         <v>-1.86</v>
       </c>
@@ -38883,20 +38883,20 @@
         <f>ROUND((E38-C38)/C38*100,2)</f>
         <v>146.94</v>
       </c>
-      <c r="H38" s="899" t="s">
+      <c r="H38" s="835" t="s">
         <v>165</v>
       </c>
-      <c r="I38" s="900"/>
-      <c r="J38" s="900"/>
-      <c r="K38" s="901"/>
-      <c r="L38" s="901"/>
-      <c r="M38" s="902"/>
-      <c r="N38" s="903" t="s">
+      <c r="I38" s="836"/>
+      <c r="J38" s="836"/>
+      <c r="K38" s="837"/>
+      <c r="L38" s="837"/>
+      <c r="M38" s="838"/>
+      <c r="N38" s="839" t="s">
         <v>166</v>
       </c>
-      <c r="O38" s="904"/>
-      <c r="P38" s="904"/>
-      <c r="Q38" s="905"/>
+      <c r="O38" s="840"/>
+      <c r="P38" s="840"/>
+      <c r="Q38" s="841"/>
       <c r="R38" s="326">
         <v>14.18</v>
       </c>
@@ -38940,17 +38940,17 @@
         <f>+AC5</f>
         <v>2020-21</v>
       </c>
-      <c r="AD38" s="823" t="s">
+      <c r="AD38" s="813" t="s">
         <v>230</v>
       </c>
-      <c r="AE38" s="823"/>
-      <c r="AF38" s="823"/>
-      <c r="AG38" s="823"/>
-      <c r="AH38" s="823"/>
-      <c r="AI38" s="823"/>
-      <c r="AJ38" s="823"/>
-      <c r="AK38" s="823"/>
-      <c r="AL38" s="879"/>
+      <c r="AE38" s="813"/>
+      <c r="AF38" s="813"/>
+      <c r="AG38" s="813"/>
+      <c r="AH38" s="813"/>
+      <c r="AI38" s="813"/>
+      <c r="AJ38" s="813"/>
+      <c r="AK38" s="813"/>
+      <c r="AL38" s="814"/>
       <c r="AN38" s="478"/>
     </row>
     <row r="39" spans="1:40" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -38977,28 +38977,28 @@
         <f>ROUND((E39-C39)/C39*100,2)</f>
         <v>13.71</v>
       </c>
-      <c r="H39" s="900" t="s">
+      <c r="H39" s="836" t="s">
         <v>116</v>
       </c>
-      <c r="I39" s="906"/>
+      <c r="I39" s="842"/>
       <c r="J39" s="366" t="s">
         <v>124</v>
       </c>
       <c r="K39" s="367" t="s">
         <v>124</v>
       </c>
-      <c r="L39" s="849" t="str">
+      <c r="L39" s="843" t="str">
         <f>+E5</f>
         <v>Actual</v>
       </c>
-      <c r="M39" s="907"/>
-      <c r="N39" s="908"/>
-      <c r="O39" s="909"/>
-      <c r="P39" s="909"/>
-      <c r="Q39" s="909"/>
-      <c r="R39" s="909"/>
-      <c r="S39" s="909"/>
-      <c r="T39" s="910"/>
+      <c r="M39" s="844"/>
+      <c r="N39" s="845"/>
+      <c r="O39" s="846"/>
+      <c r="P39" s="846"/>
+      <c r="Q39" s="846"/>
+      <c r="R39" s="846"/>
+      <c r="S39" s="846"/>
+      <c r="T39" s="847"/>
       <c r="U39" s="350" t="s">
         <v>16</v>
       </c>
@@ -39102,18 +39102,18 @@
         <f>C36</f>
         <v>Dec-20</v>
       </c>
-      <c r="L40" s="915" t="str">
+      <c r="L40" s="853" t="str">
         <f>D36</f>
         <v>Dec-21</v>
       </c>
-      <c r="M40" s="916"/>
-      <c r="N40" s="911"/>
-      <c r="O40" s="829"/>
-      <c r="P40" s="829"/>
-      <c r="Q40" s="829"/>
-      <c r="R40" s="829"/>
-      <c r="S40" s="829"/>
-      <c r="T40" s="863"/>
+      <c r="M40" s="854"/>
+      <c r="N40" s="848"/>
+      <c r="O40" s="815"/>
+      <c r="P40" s="815"/>
+      <c r="Q40" s="815"/>
+      <c r="R40" s="815"/>
+      <c r="S40" s="815"/>
+      <c r="T40" s="849"/>
       <c r="U40" s="350" t="s">
         <v>211</v>
       </c>
@@ -39224,18 +39224,18 @@
         <f>W44/O25</f>
         <v>1.3441664144999732</v>
       </c>
-      <c r="L41" s="896">
+      <c r="L41" s="789">
         <f>+AJ51</f>
         <v>88.386930469447861</v>
       </c>
-      <c r="M41" s="919"/>
-      <c r="N41" s="912"/>
-      <c r="O41" s="913"/>
-      <c r="P41" s="913"/>
-      <c r="Q41" s="913"/>
-      <c r="R41" s="913"/>
-      <c r="S41" s="913"/>
-      <c r="T41" s="914"/>
+      <c r="M41" s="790"/>
+      <c r="N41" s="850"/>
+      <c r="O41" s="851"/>
+      <c r="P41" s="851"/>
+      <c r="Q41" s="851"/>
+      <c r="R41" s="851"/>
+      <c r="S41" s="851"/>
+      <c r="T41" s="852"/>
       <c r="U41" s="350" t="s">
         <v>233</v>
       </c>
@@ -39783,13 +39783,13 @@
       <c r="R48" s="313"/>
       <c r="S48" s="313"/>
       <c r="T48" s="376"/>
-      <c r="U48" s="794" t="s">
+      <c r="U48" s="909" t="s">
         <v>154</v>
       </c>
-      <c r="V48" s="920" t="s">
+      <c r="V48" s="792" t="s">
         <v>241</v>
       </c>
-      <c r="W48" s="921"/>
+      <c r="W48" s="793"/>
       <c r="X48" s="680" t="s">
         <v>173</v>
       </c>
@@ -39820,10 +39820,10 @@
       <c r="AI48" s="409" t="s">
         <v>247</v>
       </c>
-      <c r="AJ48" s="787" t="s">
+      <c r="AJ48" s="905" t="s">
         <v>248</v>
       </c>
-      <c r="AK48" s="788"/>
+      <c r="AK48" s="906"/>
       <c r="AL48" s="327"/>
     </row>
     <row r="49" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
@@ -39849,11 +39849,11 @@
       <c r="R49" s="313"/>
       <c r="S49" s="313"/>
       <c r="T49" s="376"/>
-      <c r="U49" s="795"/>
-      <c r="V49" s="789" t="s">
+      <c r="U49" s="910"/>
+      <c r="V49" s="794" t="s">
         <v>243</v>
       </c>
-      <c r="W49" s="790"/>
+      <c r="W49" s="795"/>
       <c r="X49" s="317">
         <v>0</v>
       </c>
@@ -39922,11 +39922,11 @@
       <c r="R50" s="313"/>
       <c r="S50" s="313"/>
       <c r="T50" s="376"/>
-      <c r="U50" s="795"/>
-      <c r="V50" s="789" t="s">
+      <c r="U50" s="910"/>
+      <c r="V50" s="794" t="s">
         <v>96</v>
       </c>
-      <c r="W50" s="790"/>
+      <c r="W50" s="795"/>
       <c r="X50" s="317">
         <v>0</v>
       </c>
@@ -39996,11 +39996,11 @@
       <c r="R51" s="379"/>
       <c r="S51" s="379"/>
       <c r="T51" s="381"/>
-      <c r="U51" s="796"/>
-      <c r="V51" s="792" t="s">
+      <c r="U51" s="911"/>
+      <c r="V51" s="907" t="s">
         <v>134</v>
       </c>
-      <c r="W51" s="793"/>
+      <c r="W51" s="908"/>
       <c r="X51" s="769">
         <f>+X49+X50</f>
         <v>0</v>
@@ -40049,13 +40049,13 @@
       <c r="AL51" s="416"/>
     </row>
     <row r="52" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="829"/>
-      <c r="B52" s="829"/>
-      <c r="C52" s="829"/>
-      <c r="D52" s="829"/>
-      <c r="E52" s="829"/>
-      <c r="F52" s="829"/>
-      <c r="G52" s="829"/>
+      <c r="A52" s="815"/>
+      <c r="B52" s="815"/>
+      <c r="C52" s="815"/>
+      <c r="D52" s="815"/>
+      <c r="E52" s="815"/>
+      <c r="F52" s="815"/>
+      <c r="G52" s="815"/>
       <c r="H52" s="313"/>
       <c r="I52" s="313"/>
       <c r="J52" s="313"/>
@@ -40121,13 +40121,13 @@
       <c r="AJ53" s="494"/>
     </row>
     <row r="54" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="866"/>
-      <c r="B54" s="866"/>
-      <c r="C54" s="866"/>
-      <c r="D54" s="866"/>
-      <c r="E54" s="866"/>
-      <c r="F54" s="866"/>
-      <c r="G54" s="866"/>
+      <c r="A54" s="796"/>
+      <c r="B54" s="796"/>
+      <c r="C54" s="796"/>
+      <c r="D54" s="796"/>
+      <c r="E54" s="796"/>
+      <c r="F54" s="796"/>
+      <c r="G54" s="796"/>
       <c r="I54" s="525"/>
       <c r="L54" s="478"/>
       <c r="M54" s="478"/>
@@ -40173,14 +40173,14 @@
         <f>+R18</f>
         <v xml:space="preserve">Actual to end </v>
       </c>
-      <c r="R55" s="922" t="s">
+      <c r="R55" s="797" t="s">
         <v>326</v>
       </c>
-      <c r="S55" s="922"/>
-      <c r="T55" s="923" t="s">
+      <c r="S55" s="797"/>
+      <c r="T55" s="798" t="s">
         <v>327</v>
       </c>
-      <c r="U55" s="923"/>
+      <c r="U55" s="798"/>
       <c r="V55" s="531"/>
       <c r="W55" s="494"/>
       <c r="X55" s="494"/>
@@ -40197,7 +40197,7 @@
       <c r="AM55" s="476"/>
     </row>
     <row r="56" spans="1:39" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C56" s="924" t="s">
+      <c r="C56" s="799" t="s">
         <v>172</v>
       </c>
       <c r="D56" s="532" t="s">
@@ -40209,16 +40209,16 @@
       <c r="F56" s="532" t="s">
         <v>398</v>
       </c>
-      <c r="G56" s="926" t="s">
+      <c r="G56" s="801" t="s">
         <v>328</v>
       </c>
-      <c r="H56" s="926" t="s">
+      <c r="H56" s="801" t="s">
         <v>329</v>
       </c>
-      <c r="I56" s="926" t="s">
+      <c r="I56" s="801" t="s">
         <v>330</v>
       </c>
-      <c r="J56" s="926" t="s">
+      <c r="J56" s="801" t="s">
         <v>331</v>
       </c>
       <c r="N56" s="527"/>
@@ -40254,7 +40254,7 @@
       <c r="AM56" s="476"/>
     </row>
     <row r="57" spans="1:39" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C57" s="925"/>
+      <c r="C57" s="800"/>
       <c r="D57" s="537" t="s">
         <v>98</v>
       </c>
@@ -40264,10 +40264,10 @@
       <c r="F57" s="537" t="s">
         <v>335</v>
       </c>
-      <c r="G57" s="927"/>
-      <c r="H57" s="927"/>
-      <c r="I57" s="927"/>
-      <c r="J57" s="927"/>
+      <c r="G57" s="802"/>
+      <c r="H57" s="802"/>
+      <c r="I57" s="802"/>
+      <c r="J57" s="802"/>
       <c r="N57" s="489" t="s">
         <v>336</v>
       </c>
@@ -40738,8 +40738,8 @@
       <c r="W63" s="494"/>
       <c r="X63" s="494"/>
       <c r="Y63" s="676"/>
-      <c r="Z63" s="866"/>
-      <c r="AA63" s="866"/>
+      <c r="Z63" s="796"/>
+      <c r="AA63" s="796"/>
       <c r="AB63" s="478"/>
       <c r="AM63" s="476"/>
     </row>
@@ -41644,28 +41644,86 @@
     </row>
   </sheetData>
   <mergeCells count="126">
-    <mergeCell ref="AC20:AC21"/>
-    <mergeCell ref="AC24:AC25"/>
-    <mergeCell ref="AE24:AE25"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="AA51:AC51"/>
-    <mergeCell ref="V48:W48"/>
-    <mergeCell ref="V49:W49"/>
-    <mergeCell ref="Z63:AA63"/>
-    <mergeCell ref="A54:G54"/>
-    <mergeCell ref="R55:S55"/>
-    <mergeCell ref="T55:U55"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="I56:I57"/>
-    <mergeCell ref="J56:J57"/>
-    <mergeCell ref="W32:W33"/>
-    <mergeCell ref="X32:X33"/>
-    <mergeCell ref="Y32:Y33"/>
-    <mergeCell ref="Z32:Z33"/>
-    <mergeCell ref="AA32:AA33"/>
-    <mergeCell ref="AB32:AB33"/>
+    <mergeCell ref="AJ48:AK48"/>
+    <mergeCell ref="V50:W50"/>
+    <mergeCell ref="AA49:AC49"/>
+    <mergeCell ref="V51:W51"/>
+    <mergeCell ref="AA50:AC50"/>
+    <mergeCell ref="U48:U51"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="U22:X22"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="N33:S33"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="H34:M34"/>
+    <mergeCell ref="U30:U31"/>
+    <mergeCell ref="V30:V31"/>
+    <mergeCell ref="W30:W31"/>
+    <mergeCell ref="X30:X31"/>
+    <mergeCell ref="Y30:Y31"/>
+    <mergeCell ref="Z30:Z31"/>
+    <mergeCell ref="AA30:AA31"/>
+    <mergeCell ref="U32:U33"/>
+    <mergeCell ref="V32:V33"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="AA19:AB19"/>
+    <mergeCell ref="AA20:AB20"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="H21:M21"/>
+    <mergeCell ref="U21:AA21"/>
+    <mergeCell ref="N17:T17"/>
+    <mergeCell ref="AA17:AB17"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="AA13:AB13"/>
+    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="N5:T5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="N6:N8"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="H3:M3"/>
+    <mergeCell ref="N3:T3"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="AC3:AL3"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="U1:AL1"/>
+    <mergeCell ref="A2:T2"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="X2:Z2"/>
+    <mergeCell ref="AO1:AS1"/>
+    <mergeCell ref="AO2:AP2"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="AF20:AF21"/>
+    <mergeCell ref="AG20:AG21"/>
+    <mergeCell ref="AH20:AH21"/>
+    <mergeCell ref="AI20:AI21"/>
+    <mergeCell ref="AJ20:AJ21"/>
+    <mergeCell ref="AK20:AK21"/>
+    <mergeCell ref="AL20:AL21"/>
+    <mergeCell ref="AH4:AJ4"/>
+    <mergeCell ref="AE4:AG4"/>
+    <mergeCell ref="AE20:AE21"/>
     <mergeCell ref="AJ24:AJ25"/>
     <mergeCell ref="AK24:AK25"/>
     <mergeCell ref="AL24:AL25"/>
@@ -41690,86 +41748,28 @@
     <mergeCell ref="N39:T41"/>
     <mergeCell ref="L40:M40"/>
     <mergeCell ref="AB30:AB31"/>
-    <mergeCell ref="AO1:AS1"/>
-    <mergeCell ref="AO2:AP2"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="AF20:AF21"/>
-    <mergeCell ref="AG20:AG21"/>
-    <mergeCell ref="AH20:AH21"/>
-    <mergeCell ref="AI20:AI21"/>
-    <mergeCell ref="AJ20:AJ21"/>
-    <mergeCell ref="AK20:AK21"/>
-    <mergeCell ref="AL20:AL21"/>
-    <mergeCell ref="AH4:AJ4"/>
-    <mergeCell ref="AE4:AG4"/>
-    <mergeCell ref="AE20:AE21"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="H3:M3"/>
-    <mergeCell ref="N3:T3"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="AC3:AL3"/>
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="U1:AL1"/>
-    <mergeCell ref="A2:T2"/>
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="X2:Z2"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="AA12:AB12"/>
-    <mergeCell ref="AA13:AB13"/>
-    <mergeCell ref="AA14:AB14"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="N5:T5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="N6:N8"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="AA19:AB19"/>
-    <mergeCell ref="AA20:AB20"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="H21:M21"/>
-    <mergeCell ref="U21:AA21"/>
-    <mergeCell ref="N17:T17"/>
-    <mergeCell ref="AA17:AB17"/>
-    <mergeCell ref="AJ48:AK48"/>
-    <mergeCell ref="V50:W50"/>
-    <mergeCell ref="AA49:AC49"/>
-    <mergeCell ref="V51:W51"/>
-    <mergeCell ref="AA50:AC50"/>
-    <mergeCell ref="U48:U51"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="U22:X22"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="N33:S33"/>
-    <mergeCell ref="A34:G34"/>
-    <mergeCell ref="H34:M34"/>
-    <mergeCell ref="U30:U31"/>
-    <mergeCell ref="V30:V31"/>
-    <mergeCell ref="W30:W31"/>
-    <mergeCell ref="X30:X31"/>
-    <mergeCell ref="Y30:Y31"/>
-    <mergeCell ref="Z30:Z31"/>
-    <mergeCell ref="AA30:AA31"/>
-    <mergeCell ref="U32:U33"/>
-    <mergeCell ref="V32:V33"/>
+    <mergeCell ref="AC20:AC21"/>
+    <mergeCell ref="AC24:AC25"/>
+    <mergeCell ref="AE24:AE25"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="AA51:AC51"/>
+    <mergeCell ref="V48:W48"/>
+    <mergeCell ref="V49:W49"/>
+    <mergeCell ref="Z63:AA63"/>
+    <mergeCell ref="A54:G54"/>
+    <mergeCell ref="R55:S55"/>
+    <mergeCell ref="T55:U55"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="I56:I57"/>
+    <mergeCell ref="J56:J57"/>
+    <mergeCell ref="W32:W33"/>
+    <mergeCell ref="X32:X33"/>
+    <mergeCell ref="Y32:Y33"/>
+    <mergeCell ref="Z32:Z33"/>
+    <mergeCell ref="AA32:AA33"/>
+    <mergeCell ref="AB32:AB33"/>
   </mergeCells>
   <pageMargins left="0.25" right="0" top="0.25" bottom="0" header="0" footer="0"/>
   <pageSetup scale="55" orientation="landscape" r:id="rId1"/>
@@ -45236,7 +45236,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AC75"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B14" zoomScale="78" zoomScaleNormal="100" zoomScaleSheetLayoutView="78" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="D15" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
@@ -50359,15 +50359,15 @@
       <c r="C11" s="438" t="s">
         <v>289</v>
       </c>
-      <c r="G11" s="930" t="s">
+      <c r="G11" s="934" t="s">
         <v>427</v>
       </c>
-      <c r="H11" s="930"/>
-      <c r="I11" s="930"/>
-      <c r="O11" s="932" t="s">
+      <c r="H11" s="934"/>
+      <c r="I11" s="934"/>
+      <c r="O11" s="935" t="s">
         <v>283</v>
       </c>
-      <c r="P11" s="934"/>
+      <c r="P11" s="936"/>
     </row>
     <row r="12" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="429" t="s">
@@ -50791,25 +50791,25 @@
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="J19" s="939" t="s">
+      <c r="J19" s="937" t="s">
         <v>290</v>
       </c>
-      <c r="K19" s="939"/>
+      <c r="K19" s="937"/>
     </row>
     <row r="20" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="935"/>
-      <c r="B20" s="936"/>
-      <c r="C20" s="936"/>
-      <c r="D20" s="936"/>
-      <c r="E20" s="937"/>
-      <c r="F20" s="938" t="s">
+      <c r="A20" s="930"/>
+      <c r="B20" s="931"/>
+      <c r="C20" s="931"/>
+      <c r="D20" s="931"/>
+      <c r="E20" s="932"/>
+      <c r="F20" s="933" t="s">
         <v>427</v>
       </c>
-      <c r="G20" s="938"/>
-      <c r="H20" s="938"/>
-      <c r="I20" s="938"/>
-      <c r="J20" s="938"/>
-      <c r="K20" s="938"/>
+      <c r="G20" s="933"/>
+      <c r="H20" s="933"/>
+      <c r="I20" s="933"/>
+      <c r="J20" s="933"/>
+      <c r="K20" s="933"/>
       <c r="L20" s="429"/>
     </row>
     <row r="21" spans="1:25" ht="30" x14ac:dyDescent="0.25">
@@ -51868,10 +51868,10 @@
       <c r="P42" s="417"/>
     </row>
     <row r="44" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I44" s="931" t="s">
+      <c r="I44" s="938" t="s">
         <v>290</v>
       </c>
-      <c r="J44" s="931"/>
+      <c r="J44" s="938"/>
     </row>
     <row r="45" spans="1:16" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="454" t="s">
@@ -51880,16 +51880,16 @@
       <c r="C45" s="455" t="s">
         <v>376</v>
       </c>
-      <c r="D45" s="932" t="s">
+      <c r="D45" s="935" t="s">
         <v>430</v>
       </c>
-      <c r="E45" s="933"/>
-      <c r="F45" s="934"/>
-      <c r="G45" s="930" t="s">
+      <c r="E45" s="939"/>
+      <c r="F45" s="936"/>
+      <c r="G45" s="934" t="s">
         <v>427</v>
       </c>
-      <c r="H45" s="930"/>
-      <c r="I45" s="930"/>
+      <c r="H45" s="934"/>
+      <c r="I45" s="934"/>
       <c r="J45" s="428" t="s">
         <v>250</v>
       </c>
@@ -52762,10 +52762,10 @@
       </c>
     </row>
     <row r="71" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I71" s="931" t="s">
+      <c r="I71" s="938" t="s">
         <v>290</v>
       </c>
-      <c r="J71" s="931"/>
+      <c r="J71" s="938"/>
     </row>
     <row r="72" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B72" s="454" t="s">
@@ -52779,11 +52779,11 @@
       </c>
       <c r="E72" s="454"/>
       <c r="F72" s="454"/>
-      <c r="G72" s="930" t="s">
+      <c r="G72" s="934" t="s">
         <v>427</v>
       </c>
-      <c r="H72" s="930"/>
-      <c r="I72" s="930"/>
+      <c r="H72" s="934"/>
+      <c r="I72" s="934"/>
       <c r="J72" s="457" t="s">
         <v>250</v>
       </c>
@@ -53056,11 +53056,11 @@
       </c>
       <c r="E83" s="553"/>
       <c r="F83" s="554"/>
-      <c r="G83" s="930" t="s">
+      <c r="G83" s="934" t="s">
         <v>427</v>
       </c>
-      <c r="H83" s="930"/>
-      <c r="I83" s="930"/>
+      <c r="H83" s="934"/>
+      <c r="I83" s="934"/>
       <c r="J83" s="465" t="s">
         <v>250</v>
       </c>
@@ -53387,17 +53387,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="F20:K20"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="J19:K19"/>
     <mergeCell ref="G83:I83"/>
     <mergeCell ref="I44:J44"/>
     <mergeCell ref="D45:F45"/>
     <mergeCell ref="G45:I45"/>
     <mergeCell ref="I71:J71"/>
     <mergeCell ref="G72:I72"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="F20:K20"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="J19:K19"/>
   </mergeCells>
   <pageMargins left="0.5" right="0" top="0.25" bottom="0" header="0" footer="0"/>
   <pageSetup scale="59" orientation="portrait" r:id="rId1"/>
@@ -53454,19 +53454,19 @@
       <c r="I2" s="940"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="938" t="s">
+      <c r="A4" s="933" t="s">
         <v>389</v>
       </c>
-      <c r="B4" s="938"/>
-      <c r="C4" s="938"/>
-      <c r="D4" s="938"/>
-      <c r="E4" s="938"/>
-      <c r="G4" s="938" t="s">
+      <c r="B4" s="933"/>
+      <c r="C4" s="933"/>
+      <c r="D4" s="933"/>
+      <c r="E4" s="933"/>
+      <c r="G4" s="933" t="s">
         <v>426</v>
       </c>
-      <c r="H4" s="938"/>
-      <c r="I4" s="938"/>
-      <c r="J4" s="938"/>
+      <c r="H4" s="933"/>
+      <c r="I4" s="933"/>
+      <c r="J4" s="933"/>
     </row>
     <row r="5" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="429"/>
